--- a/autonpa/empty_book.xlsx
+++ b/autonpa/empty_book.xlsx
@@ -70720,6 +70720,15 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="BA53">
+    <cfRule priority="1" type="iconSet">
+      <iconSet iconSet="3TrafficLights1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
